--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pject\회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8203EB-36C3-4E81-9A06-3DE8641CD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId2"/>
     <sheet name="LoginSQL" sheetId="2" r:id="rId3"/>
-    <sheet name="Admin" sheetId="8" r:id="rId4"/>
-    <sheet name="Seller" sheetId="12" r:id="rId5"/>
-    <sheet name="ProductSQL" sheetId="3" r:id="rId6"/>
-    <sheet name="Electronics" sheetId="7" r:id="rId7"/>
-    <sheet name="Sports" sheetId="4" r:id="rId8"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId9"/>
-    <sheet name="Books" sheetId="6" r:id="rId10"/>
-    <sheet name="会議録1206" sheetId="1" r:id="rId11"/>
-    <sheet name="会議録1212" sheetId="15" r:id="rId12"/>
+    <sheet name="qna" sheetId="16" r:id="rId4"/>
+    <sheet name="Admin" sheetId="8" r:id="rId5"/>
+    <sheet name="Seller" sheetId="12" r:id="rId6"/>
+    <sheet name="ProductSQL" sheetId="3" r:id="rId7"/>
+    <sheet name="Electronics" sheetId="7" r:id="rId8"/>
+    <sheet name="Sports" sheetId="4" r:id="rId9"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId10"/>
+    <sheet name="Books" sheetId="6" r:id="rId11"/>
+    <sheet name="会議録1206" sheetId="1" r:id="rId12"/>
+    <sheet name="会議録1212" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>회의명</t>
   </si>
@@ -978,12 +978,52 @@
       </rPr>
       <t>録</t>
     </r>
+  </si>
+  <si>
+    <t>create table qna{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_no varchar2(100) not null primary key,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title varchar2(100) not null,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_content varchar2(100) not null,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_writer varchar2(100) not null,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date date default sysdate,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증분 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐쉬 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1356,29 +1396,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92BDB2E-9030-4D5B-98F1-67F697714DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -1386,29 +1426,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1" xr:uid="{17FC862D-2790-4686-B40F-26E5AC6ED7C9}"/>
-    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1" xr:uid="{18635DE8-2EFF-407C-A4D9-D4B66408908B}"/>
+    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1"/>
+    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4997FC-3C07-4187-9743-50C6B7757FFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -1420,48 +1460,74 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1480,7 +1546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>96</v>
       </c>
@@ -1491,7 +1557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1499,12 +1565,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1520,27 +1586,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1548,12 +1614,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1561,12 +1627,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1574,12 +1640,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1593,7 +1659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1615,7 +1681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1626,7 +1692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1637,7 +1703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1648,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1663,49 +1729,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEC2AC0-0FC6-4375-8139-48F4D1E12BE7}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1790,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1732,43 +1798,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1776,12 +1842,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1817,7 +1883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1839,7 +1905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1850,7 +1916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1865,12 +1931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0103B2AA-D42C-4B68-8923-E1557C7202D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,21 +1944,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4289265-FB91-418B-8530-C29B046F8416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -1900,37 +1966,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +2004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -1946,7 +2012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>51</v>
       </c>
@@ -1957,7 +2023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>38</v>
       </c>
@@ -1965,12 +2031,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="Q16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
         <v>34</v>
       </c>
@@ -1984,7 +2050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +2061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
         <v>59</v>
       </c>
@@ -2006,7 +2072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
         <v>41</v>
       </c>
@@ -2017,17 +2083,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="13:17" x14ac:dyDescent="0.3">
       <c r="P24" t="s">
         <v>57</v>
       </c>
@@ -2035,52 +2101,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="13:17" x14ac:dyDescent="0.3">
       <c r="Q31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q40" t="s">
         <v>56</v>
       </c>
@@ -2092,47 +2158,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB57D451-98C6-48F0-ABC5-EC83A14D9C0C}">
-  <dimension ref="C5:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>44</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D092B3-A496-4FE1-9ED7-54FB069E21E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2144,83 +2251,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D233D-8043-4849-B7EB-2DA928B38F15}">
-  <dimension ref="B4:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2230,23 +2277,83 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA47140-92B0-4B84-9F9D-59214149E605}">
-  <dimension ref="C5:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2256,21 +2363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F820B8-4363-49DD-94C0-BEFC66729792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -2282,21 +2389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6775CD70-43A4-4F24-9C68-285BEFEBC04A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>60</v>
       </c>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>회의명</t>
   </si>
@@ -980,10 +980,6 @@
     </r>
   </si>
   <si>
-    <t>create table qna{</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qna_no varchar2(100) not null primary key,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1000,10 +996,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>qna_date date default sysdate,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qna_seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1017,6 +1009,18 @@
   </si>
   <si>
     <t>캐쉬 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table qna(</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date date default sysdate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1490,7 +1494,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1948,7 +1952,7 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2154,6 +2158,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2162,59 +2167,64 @@
   <dimension ref="C5:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pject\회의록\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId2"/>
     <sheet name="LoginSQL" sheetId="2" r:id="rId3"/>
-    <sheet name="qna" sheetId="16" r:id="rId4"/>
-    <sheet name="Admin" sheetId="8" r:id="rId5"/>
-    <sheet name="Seller" sheetId="12" r:id="rId6"/>
-    <sheet name="ProductSQL" sheetId="3" r:id="rId7"/>
-    <sheet name="Electronics" sheetId="7" r:id="rId8"/>
-    <sheet name="Sports" sheetId="4" r:id="rId9"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId10"/>
-    <sheet name="Books" sheetId="6" r:id="rId11"/>
-    <sheet name="会議録1206" sheetId="1" r:id="rId12"/>
-    <sheet name="会議録1212" sheetId="15" r:id="rId13"/>
+    <sheet name="Admin" sheetId="8" r:id="rId4"/>
+    <sheet name="Seller" sheetId="12" r:id="rId5"/>
+    <sheet name="ProductSQL" sheetId="3" r:id="rId6"/>
+    <sheet name="Electronics" sheetId="7" r:id="rId7"/>
+    <sheet name="Sports" sheetId="4" r:id="rId8"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId9"/>
+    <sheet name="Books" sheetId="6" r:id="rId10"/>
+    <sheet name="会議録1206" sheetId="1" r:id="rId11"/>
+    <sheet name="会議録1212" sheetId="15" r:id="rId12"/>
+    <sheet name="会議録1219" sheetId="16" r:id="rId13"/>
+    <sheet name="qna" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
   <si>
     <t>회의명</t>
   </si>
@@ -980,51 +976,81 @@
     </r>
   </si>
   <si>
-    <t>create table qna{</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_no varchar2(100) not null primary key,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_title varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_content varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_writer varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_date date default sysdate,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>증분 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐쉬 없음</t>
+    <t>유석)QNA crud기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주열)헤드및 디자인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB sql문 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table qna( qna_no varchar2(100) not null primary key, qna_title varchar2(100) not null, qna_content varchar2(100) not null, qna_writer varchar2(100) not null, qna_date date default sysdate );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qna_seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시퀸스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 마스터 브런치에 작업물 병합 헤더부분 디자인 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성진)로그인 기능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성진)마이페이지 장바구니 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 결과 보고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1088,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1084,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,6 +1133,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1403,22 +1445,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="B3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -1438,17 +1480,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -1461,73 +1503,47 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="E9" t="s">
         <v>96</v>
       </c>
@@ -1557,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1565,12 +1581,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1586,27 +1602,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1614,12 +1630,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1627,12 +1643,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1640,12 +1656,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1729,49 +1745,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1798,43 +1814,262 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1842,12 +2077,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1883,7 +2118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +2129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +2140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1916,12 +2151,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="45">
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +2208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1948,17 +2220,17 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17">
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -1966,37 +2238,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17">
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17">
       <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17">
       <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17">
       <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17">
       <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17">
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -2004,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17">
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17">
       <c r="D14" t="s">
         <v>51</v>
       </c>
@@ -2023,7 +2295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17">
       <c r="M15" t="s">
         <v>38</v>
       </c>
@@ -2031,12 +2303,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17">
       <c r="Q16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:17">
       <c r="M17" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:17">
       <c r="M18" t="s">
         <v>39</v>
       </c>
@@ -2061,7 +2333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:17">
       <c r="M19" t="s">
         <v>59</v>
       </c>
@@ -2072,7 +2344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:17">
       <c r="M20" t="s">
         <v>41</v>
       </c>
@@ -2083,17 +2355,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:17">
       <c r="Q21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:17">
       <c r="Q22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:17">
       <c r="P24" t="s">
         <v>57</v>
       </c>
@@ -2101,52 +2373,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:17">
       <c r="Q25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:17">
       <c r="Q26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:17">
       <c r="Q27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:17">
       <c r="Q31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:17">
       <c r="Q35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:17">
       <c r="Q36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:17">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:17">
       <c r="Q38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:17">
       <c r="Q39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:17">
       <c r="Q40" t="s">
         <v>56</v>
       </c>
@@ -2159,68 +2431,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C16"/>
+  <dimension ref="C5:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2229,17 +2460,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2252,22 +2483,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
+  <dimension ref="B4:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2278,82 +2569,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C17"/>
+  <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2367,17 +2598,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -2393,17 +2624,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pject\회의록\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId2"/>
     <sheet name="LoginSQL" sheetId="2" r:id="rId3"/>
-    <sheet name="qna" sheetId="16" r:id="rId4"/>
-    <sheet name="Admin" sheetId="8" r:id="rId5"/>
-    <sheet name="Seller" sheetId="12" r:id="rId6"/>
-    <sheet name="ProductSQL" sheetId="3" r:id="rId7"/>
-    <sheet name="Electronics" sheetId="7" r:id="rId8"/>
-    <sheet name="Sports" sheetId="4" r:id="rId9"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId10"/>
-    <sheet name="Books" sheetId="6" r:id="rId11"/>
-    <sheet name="会議録1206" sheetId="1" r:id="rId12"/>
-    <sheet name="会議録1212" sheetId="15" r:id="rId13"/>
+    <sheet name="Admin" sheetId="8" r:id="rId4"/>
+    <sheet name="Seller" sheetId="12" r:id="rId5"/>
+    <sheet name="ProductSQL" sheetId="3" r:id="rId6"/>
+    <sheet name="Electronics" sheetId="7" r:id="rId7"/>
+    <sheet name="Sports" sheetId="4" r:id="rId8"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId9"/>
+    <sheet name="Books" sheetId="6" r:id="rId10"/>
+    <sheet name="会議録1206" sheetId="1" r:id="rId11"/>
+    <sheet name="会議録1212" sheetId="15" r:id="rId12"/>
+    <sheet name="会議録1219" sheetId="16" r:id="rId13"/>
+    <sheet name="qna" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
   <si>
     <t>회의명</t>
   </si>
@@ -980,55 +976,81 @@
     </r>
   </si>
   <si>
-    <t>qna_no varchar2(100) not null primary key,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_title varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_content varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_writer varchar2(100) not null,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>증분 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐쉬 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table qna(</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_date date default sysdate</t>
+    <t>유석)QNA crud기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주열)헤드및 디자인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB sql문 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table qna( qna_no varchar2(100) not null primary key, qna_title varchar2(100) not null, qna_content varchar2(100) not null, qna_writer varchar2(100) not null, qna_date date default sysdate );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qna_seq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시퀸스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 마스터 브런치에 작업물 병합 헤더부분 디자인 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성진)로그인 기능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성진)마이페이지 장바구니 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 결과 보고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1088,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1088,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,6 +1133,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1407,22 +1445,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="B3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -1442,17 +1480,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -1465,73 +1503,47 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="E9" t="s">
         <v>96</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1569,12 +1581,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1590,27 +1602,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1618,12 +1630,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1631,12 +1643,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1644,12 +1656,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1733,49 +1745,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1802,43 +1814,262 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1846,12 +2077,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +2118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1898,7 +2129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +2140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1920,12 +2151,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="45">
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +2208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,17 +2220,17 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17">
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -1970,37 +2238,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17">
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17">
       <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17">
       <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17">
       <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17">
       <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17">
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17">
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -2016,7 +2284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17">
       <c r="D14" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17">
       <c r="M15" t="s">
         <v>38</v>
       </c>
@@ -2035,12 +2303,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17">
       <c r="Q16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:17">
       <c r="M17" t="s">
         <v>34</v>
       </c>
@@ -2054,7 +2322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:17">
       <c r="M18" t="s">
         <v>39</v>
       </c>
@@ -2065,7 +2333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:17">
       <c r="M19" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:17">
       <c r="M20" t="s">
         <v>41</v>
       </c>
@@ -2087,17 +2355,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:17">
       <c r="Q21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:17">
       <c r="Q22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:17">
       <c r="P24" t="s">
         <v>57</v>
       </c>
@@ -2105,52 +2373,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:17">
       <c r="Q25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:17">
       <c r="Q26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:17">
       <c r="Q27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:17">
       <c r="Q31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:17">
       <c r="Q35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:17">
       <c r="Q36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:17">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:17">
       <c r="Q38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:17">
       <c r="Q39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:17">
       <c r="Q40" t="s">
         <v>56</v>
       </c>
@@ -2158,79 +2426,32 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C16"/>
+  <dimension ref="C5:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2239,17 +2460,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2262,22 +2483,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
+  <dimension ref="B4:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2288,82 +2569,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C17"/>
+  <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2377,17 +2598,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -2403,17 +2624,17 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>60</v>
       </c>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KPM-wjy\회의록\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15F449-9E1F-4EDF-830C-54A930F87511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
@@ -12,22 +18,23 @@
     <sheet name="LoginSQL" sheetId="2" r:id="rId3"/>
     <sheet name="Admin" sheetId="8" r:id="rId4"/>
     <sheet name="Seller" sheetId="12" r:id="rId5"/>
-    <sheet name="ProductSQL" sheetId="3" r:id="rId6"/>
-    <sheet name="Electronics" sheetId="7" r:id="rId7"/>
-    <sheet name="Sports" sheetId="4" r:id="rId8"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId9"/>
-    <sheet name="Books" sheetId="6" r:id="rId10"/>
-    <sheet name="会議録1206" sheetId="1" r:id="rId11"/>
-    <sheet name="会議録1212" sheetId="15" r:id="rId12"/>
-    <sheet name="会議録1219" sheetId="16" r:id="rId13"/>
-    <sheet name="qna" sheetId="17" r:id="rId14"/>
+    <sheet name="qna" sheetId="17" r:id="rId6"/>
+    <sheet name="ProductSQL" sheetId="3" r:id="rId7"/>
+    <sheet name="Cart" sheetId="18" r:id="rId8"/>
+    <sheet name="Electronics" sheetId="7" r:id="rId9"/>
+    <sheet name="Sports" sheetId="4" r:id="rId10"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId11"/>
+    <sheet name="Books" sheetId="6" r:id="rId12"/>
+    <sheet name="会議録1206" sheetId="1" r:id="rId13"/>
+    <sheet name="会議録1212" sheetId="15" r:id="rId14"/>
+    <sheet name="会議録1219" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="161">
   <si>
     <t>회의명</t>
   </si>
@@ -769,33 +776,345 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CREATE TABLE ELECTRONICS (</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品のカテゴリ別SQL文は各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>々作成して共有するようにする</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    userId          VARCHAR2(100 BYTE) PRIMARY KEY, -- ユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자:정유진  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인/회원가입:박성진  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QnA/고객센터:송유석 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지/디자인:왕주열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会議録1206!A1</t>
+  </si>
+  <si>
+    <t>2024년 12월 12일 목요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 ~ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>성진さんがログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・会員登録を作成し、Gitに配布したのちにコーディングを始める</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>コーディングと追加内容の話し合い及び修正等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会議録1212!A1</t>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q&amp;A　お客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>様</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>センタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LOGIN/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>員登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>録</t>
+    </r>
+  </si>
+  <si>
+    <t>유석)QNA crud기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주열)헤드및 디자인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 마스터 브런치에 작업물 병합 헤더부분 디자인 협의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성진)로그인 기능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성진)마이페이지 장바구니 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 결과 보고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE USERS MODIFY VERIFY DEFAULT 1;</t>
+  </si>
+  <si>
+    <t>qna_no varchar2(100) not null primary key,</t>
+  </si>
+  <si>
+    <t>qna_title varchar2(100) not null,</t>
+  </si>
+  <si>
+    <t>qna_content varchar2(100) not null,</t>
+  </si>
+  <si>
+    <t>qna_writer varchar2(100) not null,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_date date default sysdate</t>
+  </si>
+  <si>
+    <t>CREATE TABLE QNA (</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNA_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시: 캐시 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값: 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증분: 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE TABLE BOOKS (</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE ELECTRONICS (</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>商品のカテゴリ別SQL文は各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>々作成して共有するようにする</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    userId          VARCHAR2(100 BYTE) PRIMARY KEY, -- ユ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BOOK_ID VARCHAR2(50) PRIMARY KEY,         -- 書籍ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NAME VARCHAR2(100) NOT NULL,              -- 書籍名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    UNIT_PRICE NUMBER NOT NULL,               -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    AUTHOR VARCHAR2(100),                     -- 著者</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    DESCRIPTION VARCHAR2(500),                -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>説</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    PUBLISHER VARCHAR2(100),                  -- 出版社</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    CATEGORY_ID NUMBER,                       -- カテゴリID（CATEGORYテ</t>
     </r>
     <r>
       <rPr>
@@ -816,7 +1135,199 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ザ</t>
+      <t>ブルを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    UNITS_IN_STOCK NUMBER NOT NULL,           -- 在庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    RELEASE_DATE DATE,                        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>発売</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    CONDITION VARCHAR2(20),                   -- 新品、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品など</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    FILENAME VARCHAR2(255),                   -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像ファイル名</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT FK_BOOK_CATEGORY FOREIGN KEY (CATEGORY_ID) REFERENCES CATEGORY(CATEGORY_ID)</t>
+  </si>
+  <si>
+    <t>-- 1つ目の書籍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO BOOKS (BOOK_ID, NAME, UNIT_PRICE, AUTHOR, DESCRIPTION, PUBLISHER, CATEGORY_ID, UNITS_IN_STOCK, RELEASE_DATE, CONDITION, FILENAME) </t>
+  </si>
+  <si>
+    <t>VALUES ('B001', '자바 프로그래밍 기초', 35000, '홍길동', '이 책은 자바 프로그래밍의 기초를 다루고 있습니다.', '한빛출판사', 1, 100, TO_DATE('2024-01-01', 'YYYY-MM-DD'), '새책', 'java_programming.jpg');</t>
+  </si>
+  <si>
+    <t>-- 2つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B002', '웹 개발 입문', 28000, '김영희', '이 책은 웹 개발의 기초를 다룹니다.', '오브제', 2, 120, TO_DATE('2024-02-01', 'YYYY-MM-DD'), '새책', 'web_development.jpg');</t>
+  </si>
+  <si>
+    <t>-- 3つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B003', '리눅스 기본', 25000, '이순신', '리눅스 운영 체제의 기본을 설명합니다.', '인사이트', 3, 150, TO_DATE('2024-03-01', 'YYYY-MM-DD'), '새책', 'linux_basics.jpg');</t>
+  </si>
+  <si>
+    <t>-- 4つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B004', '데이터베이스 설계', 37000, '박철호', '효율적인 데이터베이스 설계 방법을 다룬 책입니다.', '한빛출판사', 4, 80, TO_DATE('2024-04-01', 'YYYY-MM-DD'), '새책', 'db_design.jpg');</t>
+  </si>
+  <si>
+    <t>-- 5つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B005', '자바 객체지향 프로그래밍', 40000, '홍길동', '자바 객체지향 프로그래밍의 심화 내용을 다룹니다.', '비제이북스', 1, 200, TO_DATE('2024-05-01', 'YYYY-MM-DD'), '새책', 'java_oop.jpg');</t>
+  </si>
+  <si>
+    <t>-- 6つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B006', '웹 프론트엔드 개발', 32000, '이하늘', '웹 프론트엔드 개발의 모든 것을 다룹니다.', '정보문화사', 2, 90, TO_DATE('2024-06-01', 'YYYY-MM-DD'), '새책', 'frontend_dev.jpg');</t>
+  </si>
+  <si>
+    <t>-- 7つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B007', '리눅스 명령어 마스터', 27000, '김유신', '리눅스의 다양한 명령어를 학습할 수 있는 책입니다.', '한빛출판사', 3, 110, TO_DATE('2024-07-01', 'YYYY-MM-DD'), '새책', 'linux_commands.jpg');</t>
+  </si>
+  <si>
+    <t>-- 8つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B008', '데이터베이스 SQL', 33000, '강감찬', '데이터베이스에서 SQL을 활용하는 방법을 다룹니다.', '길벗', 4, 130, TO_DATE('2024-08-01', 'YYYY-MM-DD'), '새책', 'db_sql.jpg');</t>
+  </si>
+  <si>
+    <t>-- 9つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B009', '자바 웹 애플리케이션 개발', 45000, '이순신', '자바 웹 애플리케이션 개발의 다양한 방법을 설명합니다.', '영진닷컴', 1, 140, TO_DATE('2024-09-01', 'YYYY-MM-DD'), '새책', 'java_web_app.jpg');</t>
+  </si>
+  <si>
+    <t>-- 10つ目の書籍</t>
+  </si>
+  <si>
+    <t>VALUES ('B010', '웹 보안 기초', 35000, '박지민', '웹 애플리케이션 보안의 기초적인 내용을 다룹니다.', '시리즈출판사', 2, 100, TO_DATE('2024-10-01', 'YYYY-MM-DD'), '새책', 'web_security.jpg');</t>
+  </si>
+  <si>
+    <t>CREATE TABLE PRODUCT (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PRODUCT_ID NUMBER PRIMARY KEY,            -- 商品ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    CATEGORY_ID NUMBER NOT NULL,              -- カテゴリID（CATEGORYテ</t>
     </r>
     <r>
       <rPr>
@@ -837,83 +1348,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관리자:정유진  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인/회원가입:박성진  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">QnA/고객센터:송유석 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지/디자인:왕주열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会議録1206!A1</t>
-  </si>
-  <si>
-    <t>2024년 12월 12일 목요일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00 ~ </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>성진さんがログイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・会員登録を作成し、Gitに配布したのちにコーディングを始める</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>コーディングと追加内容の話し合い及び修正等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会議録1212!A1</t>
-  </si>
-  <si>
-    <t>HOME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q&amp;A　お客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>様</t>
+      <t>ブルを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参</t>
     </r>
     <r>
       <rPr>
@@ -923,35 +1369,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>センタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LOGIN/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会</t>
+      <t>照）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    NAME VARCHAR2(100) NOT NULL,              -- 商品名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    PRICE NUMBER NOT NULL,                    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>価</t>
     </r>
     <r>
       <rPr>
@@ -961,96 +1398,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>員登</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>録</t>
-    </r>
-  </si>
-  <si>
-    <t>유석)QNA crud기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">주열)헤드및 디자인 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB sql문 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table qna( qna_no varchar2(100) not null primary key, qna_title varchar2(100) not null, qna_content varchar2(100) not null, qna_writer varchar2(100) not null, qna_date date default sysdate );</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">qna_seq </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시퀸스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
+      <t>格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    STOCK NUMBER NOT NULL,                    -- 在庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT FK_PRODUCT_CATEGORY FOREIGN KEY (CATEGORY_ID) REFERENCES CATEGORY(CATEGORY_ID)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CATEGORY (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CATEGORY_ID NUMBER PRIMARY KEY,           -- カテゴリID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CATEGORY_NAME VARCHAR2(100) NOT NULL,     -- カテゴリ名（例：書籍、家電、衣服など）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    DESCRIPTION VARCHAR2(500)                -- カテゴリの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>説</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소스트리 마스터 브런치에 작업물 병합 헤더부분 디자인 협의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">성진)로그인 기능 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성진)마이페이지 장바구니 기능 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일주일 결과 보고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,17 +1499,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1123,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,9 +1546,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1438,59 +1853,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1"/>
-    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1"/>
+    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -1502,48 +1917,306 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="C5:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="C5:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +2224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1562,18 +2235,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1581,12 +2254,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1594,61 +2267,61 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1656,12 +2329,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +2348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +2359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1697,7 +2370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +2381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +2392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1745,49 +2418,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="2" max="2" width="84.09765625" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1795,18 +2468,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1814,65 +2487,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1880,12 +2553,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1899,7 +2572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1910,7 +2583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1921,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +2616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +2627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1969,44 +2642,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2014,18 +2687,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2033,43 +2706,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2077,12 +2750,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2118,7 +2791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2162,53 +2835,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="70.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:5">
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="45">
-      <c r="D7" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,21 +2853,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:17">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -2238,37 +2875,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -2276,15 +2913,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>51</v>
       </c>
@@ -2295,7 +2932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:17">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>38</v>
       </c>
@@ -2303,12 +2940,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="3:17">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.4">
       <c r="Q16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="13:17">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
       <c r="M17" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +2962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="13:17">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.4">
       <c r="M18" t="s">
         <v>39</v>
       </c>
@@ -2333,7 +2973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="13:17">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>59</v>
       </c>
@@ -2344,7 +2984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="13:17">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.4">
       <c r="M20" t="s">
         <v>41</v>
       </c>
@@ -2355,17 +2995,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="13:17">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="13:17">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="13:17">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.4">
       <c r="P24" t="s">
         <v>57</v>
       </c>
@@ -2373,52 +3013,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="13:17">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="13:17">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="13:17">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="13:17">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.4">
       <c r="Q31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="17:17">
+    <row r="35" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="17:17">
+    <row r="36" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="17:17">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="17:17">
+    <row r="38" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="17:17">
+    <row r="39" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="17:17">
+    <row r="40" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q40" t="s">
         <v>56</v>
       </c>
@@ -2430,21 +3070,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2456,21 +3096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2482,109 +3122,209 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="D5:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="70.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D8" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D11" s="5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B4:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M16" sqref="M16:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2594,47 +3334,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25897D2-1E44-48DD-A3DA-68082D9D37D4}">
+  <dimension ref="C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>60</v>
       </c>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KPM-wjy\회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15F449-9E1F-4EDF-830C-54A930F87511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868389C9-A008-4B07-A6C0-A44160AAA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="162">
   <si>
     <t>회의명</t>
   </si>
@@ -1454,13 +1454,17 @@
       </rPr>
       <t>明</t>
     </r>
+  </si>
+  <si>
+    <t>まだ試作段階なので作らなくていいです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1518,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1536,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,6 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1946,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C5:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C58" sqref="C58:C59"/>
     </sheetView>
   </sheetViews>
@@ -2856,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12:Q22"/>
     </sheetView>
   </sheetViews>
@@ -3100,7 +3112,7 @@
   <dimension ref="C5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3201,14 +3213,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B4:M20"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>77</v>
@@ -3337,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25897D2-1E44-48DD-A3DA-68082D9D37D4}">
   <dimension ref="C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/회의록/KPM会議録.xlsx
+++ b/회의록/KPM会議録.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pject\회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KPM-wjy\회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F185D1-6E6D-42D8-8BFC-8F3DAD0DFFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="14" r:id="rId1"/>
@@ -18,13 +19,14 @@
     <sheet name="会議録1206" sheetId="1" r:id="rId4"/>
     <sheet name="会議録1212" sheetId="15" r:id="rId5"/>
     <sheet name="会議録1219" sheetId="16" r:id="rId6"/>
+    <sheet name="会議録0103" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
   <si>
     <t>회의명</t>
   </si>
@@ -986,13 +988,48 @@
   </si>
   <si>
     <t>결과 보고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会議録0103!A1</t>
+  </si>
+  <si>
+    <t>2024년 01월 03일 금요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현빈) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주열) 장바구니 기능 구현 중  ←일단 보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주열) 등록한 상품을 수정/삭제, 검색기능, 페이지네이션 기능 추가 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진) 관리자페이지 유저관리 및 판매자관리 페이지 추가 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석) qna crud,  페이지네이션, 검색, 답글 crud</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1382,44 +1419,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1"/>
-    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1"/>
-    <hyperlink ref="B5" location="会議録1219!A1" display="会議録1219!A1"/>
+    <hyperlink ref="B3" location="会議録1206!A1" display="会議録1206!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" location="会議録1212!A1" display="会議録1212!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" location="会議録1219!A1" display="会議録1219!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" location="会議録0103!A1" display="会議録0103!A1" xr:uid="{C81A546F-EB75-4E60-A6DF-ABDD02FA101B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1427,26 +1470,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -1462,7 +1505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1521,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -1494,7 +1537,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>37</v>
       </c>
@@ -1518,17 +1561,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -1544,17 +1587,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.4">
       <c r="M18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.4">
       <c r="M20" t="s">
         <v>30</v>
       </c>
@@ -1566,226 +1609,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C5:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C58" sqref="C58:C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>99</v>
       </c>
@@ -1798,48 +1841,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
         <v>57</v>
       </c>
@@ -1869,7 +1910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1877,12 +1918,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1898,27 +1939,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1926,12 +1967,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1939,12 +1980,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1952,12 +1993,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1982,7 +2023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2004,7 +2045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2015,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2042,48 +2083,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="2" max="2" width="84.09765625" customWidth="1"/>
     <col min="3" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2110,12 +2151,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2131,17 +2172,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2157,18 +2198,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2176,12 +2217,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2206,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2266,44 +2307,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2330,12 +2371,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2343,7 +2384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2351,22 +2392,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2374,12 +2415,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2390,27 +2431,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2418,12 +2459,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2448,7 +2489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2492,12 +2533,267 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1733335A-B372-4775-B170-005CFBEFA568}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
